--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -46,7 +46,7 @@
     <t>dcterms:references</t>
   </si>
   <si>
-    <t>機械可読データ</t>
+    <t>機械可読ドキュメント</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
@@ -55,43 +55,43 @@
     <t>dcterms:isReferencedBy</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21824/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/21827/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21824/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
+    <t>ウェブサイトURL</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
@@ -467,13 +467,13 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -482,10 +482,10 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -507,20 +507,20 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>25</v>
@@ -531,8 +531,8 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId5"/>
     <hyperlink ref="P2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>松乃栄</t>
   </si>
   <si>
     <t>説明</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
@@ -31,70 +37,103 @@
 【請求記号 A00:6569】</t>
   </si>
   <si>
-    <t>ライセンス</t>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>dcterms:references</t>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/21827/full/200,151/0/default.jpg</t>
   </si>
   <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
   </si>
   <si>
-    <t>dcterms:isReferencedBy</t>
-  </si>
-  <si>
-    <t>年</t>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
   </si>
   <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21824/manifest</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/21827/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -112,10 +151,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +173,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,105 +478,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
         <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="O2" r:id="rId5"/>
-    <hyperlink ref="P2" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="L3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -1,164 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>松乃栄</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
-この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。_x000D_
-_x000D_
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
+この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
 【請求記号 A00:6569】</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/21827/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -173,23 +197,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -477,154 +494,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="O2">
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="L3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -142,7 +142,7 @@
 【請求記号 A00:6569】</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -1,188 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>松乃栄</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
+この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。_x000D_
+_x000D_
+【請求記号 A00:6569】</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>松乃栄</t>
-  </si>
-  <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
-この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
-【請求記号 A00:6569】</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/21827/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,16 +203,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -494,190 +507,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>47</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="O3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -1,194 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>松乃栄</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
-この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。_x000D_
-_x000D_
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
+この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
 【請求記号 A00:6569】</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -203,23 +197,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -507,184 +494,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
       <c r="T1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T3">
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="O3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -1,188 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>松乃栄</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
+この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。_x000D_
+_x000D_
+【請求記号 A00:6569】</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>松乃栄</t>
-  </si>
-  <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
-この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
-【請求記号 A00:6569】</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,16 +203,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -494,190 +507,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>47</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="O3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -1,194 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>松乃栄</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。_x000D_
-この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。_x000D_
-_x000D_
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
+この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
 【請求記号 A00:6569】</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c416f868-754f-4fed-9974-6ba911e2c0ba.json</t>
   </si>
   <si>
     <t>c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c416f868-754f-4fed-9974-6ba911e2c0ba/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -203,23 +203,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -507,184 +500,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="O3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -15,11 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>タイトルよみ</t>
+  </si>
+  <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>書誌事項</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
@@ -81,6 +90,15 @@
   </si>
   <si>
     <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
   </si>
   <si>
     <t>dcterms:description</t>
@@ -505,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,118 +595,139 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="n">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -158,7 +158,7 @@
     <t>松乃栄</t>
   </si>
   <si>
-    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
+    <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州家へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
 この資料は、文政10(1827)年に徳川第11代将軍家斉の第21女・溶姫が加賀藩第13代藩主前田斉泰に輿入れしたときの様子を、三代歌川国貞が想像を交えて描いた錦絵です。東京大学のシンボルの一つである「赤門」は、このとき溶姫を迎えるため建立されたもので、白無垢の花嫁衣裳に身を包んだ溶姫が、豪奢な行列を従えて赤門をくぐる図は当時の華やかさを今に伝えています。もっとも、この資料は明治22年に描かれたもので、明治22(1889)年は家康が江戸へ入府した天正18(1590)年から数えて三百年に当たり、東京開市三百年祭が営まれた年であったため、溶姫の輿入れが描かれたと考えられます。東京大学にとっては、赤門の由来を伝える貴重な絵画史料と言えます。
 【請求記号 A00:6569】</t>
   </si>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>タイトル</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>松乃栄</t>
+  </si>
+  <si>
+    <t>まつのさかえ</t>
   </si>
   <si>
     <t>「松乃栄(まつのさかえ)」は「旧幕府の姫君加州家へ御輿入の図」という副題を持つ資料で、総合図書館に貴重書として所蔵されています。
@@ -683,35 +686,37 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -721,7 +726,7 @@
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="s"/>

--- a/docs/collections/matsunosakae/metadata/data.xlsx
+++ b/docs/collections/matsunosakae/metadata/data.xlsx
@@ -181,7 +181,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunosakae/document/c416f868-754f-4fed-9974-6ba911e2c0ba</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/73c0f14aeb5e2f978eca86cab601eda07213ce21.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b1e8c123dc45f72754f89f65a948858223a2d3e9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21824</t>
